--- a/Ecopulper/my_graphs/FAO Land Change by Activities.xlsx
+++ b/Ecopulper/my_graphs/FAO Land Change by Activities.xlsx
@@ -414,10 +414,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.0007730264470033887</v>
+        <v>7.804800297606107E-06</v>
       </c>
       <c r="C2">
-        <v>7.063863203216059E-05</v>
+        <v>7.131973536189662E-07</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -425,10 +425,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>3.433959676613085E-07</v>
+        <v>3.467079068286694E-09</v>
       </c>
       <c r="C3">
-        <v>9.903223840979081E-08</v>
+        <v>9.998721850479342E-10</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.275098497899307E-07</v>
+        <v>1.287403961214295E-09</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -447,10 +447,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>5.135094363062365E-07</v>
+        <v>5.184606965968896E-09</v>
       </c>
       <c r="C5">
-        <v>4.692414368179243E-08</v>
+        <v>4.737658043652004E-10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -458,10 +458,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.001788899073744687</v>
+        <v>1.806147793104174E-05</v>
       </c>
       <c r="C6">
-        <v>0.0001634683548843441</v>
+        <v>1.650445298650993E-06</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -469,10 +469,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.0002745434885582654</v>
+        <v>2.77190611086553E-06</v>
       </c>
       <c r="C7">
-        <v>1.804179055397981E-05</v>
+        <v>1.821574073801457E-07</v>
       </c>
     </row>
   </sheetData>
